--- a/src/test/java/ApachePOI/resource/Scenariostatus.xlsx
+++ b/src/test/java/ApachePOI/resource/Scenariostatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="12">
   <si>
     <t>Create Country</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Create a country</t>
+  </si>
+  <si>
+    <t>Create a country parameter data</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,6 +210,230 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
